--- a/dbgpt_hub/data/neuvix/query_sql.xlsx
+++ b/dbgpt_hub/data/neuvix/query_sql.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Neuvix\NL2SQL\DB-GPT-Hub\dbgpt_hub\data\neuvix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Neuvix\NL2SQL\neuvix-git\DB-GPT-HUB\dbgpt_hub\data\neuvix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810F5912-370E-4E63-A484-5D55B8716474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE3F1C1-CEC3-4B69-93CC-CC5814354745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
   <si>
     <t>列出所有船舶的船舶代码</t>
   </si>
   <si>
-    <t>SELECT chi_and_eng_ship_name, ship_code FROM tp_mis.change_ship_archives_basic_info;</t>
-  </si>
-  <si>
     <t>显示船舶安盛18的国籍</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t xml:space="preserve">SELECT vssc_name, ship_state, update_date_time FROM change_shipping_basic_work_data WHERE line_name ="津港驳运快线" ORDER BY update_date_time DESC LIMIT 1 </t>
   </si>
   <si>
-    <t>列举所有航线的在泊状态</t>
-  </si>
-  <si>
     <t>查询华晟59计划靠泊时间</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t xml:space="preserve">SELECT act_berthind_date_time FROM change_shipping_basic_work_data WHERE vssc_name = "华晟59" ORDER BY update_date_time DESC LIMIT 1 </t>
   </si>
   <si>
-    <t>查询华晟59实际靠泊时间与计划靠泊时间偏差</t>
-  </si>
-  <si>
     <t>查询华晟59计划开工时间</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
   </si>
   <si>
     <t>内贸航向有哪些</t>
-  </si>
-  <si>
-    <t>SELECT route_desc FROM tp_mis.change_route_basic_info where trad_attr = "内贸";</t>
   </si>
   <si>
     <t>航线类型有哪些</t>
@@ -346,9 +334,6 @@
     <t>查询司机田旺的工号</t>
   </si>
   <si>
-    <t>SELECT driver_no FROM tp_mis.change_driver_basic_info where driver_name ="田旺";</t>
-  </si>
-  <si>
     <t>查询司机曹哲文的工号</t>
   </si>
   <si>
@@ -400,6 +385,39 @@
   <si>
     <t>question</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT chi_and_eng_ship_name, ship_code FROM tp_mis.change_ship_archives_basic_info;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_ship_archives_basic_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT vssc_name FROM change_shipping_basic_work_data WHERE ship_state="在泊"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_shipping_basic_work_data</t>
+  </si>
+  <si>
+    <t>SELECT route_desc FROM tp_mis.change_route_basic_info where trad_attr = "内贸";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_route_basic_info</t>
+  </si>
+  <si>
+    <t>SELECT driver_no FROM tp_mis.change_driver_basic_info where driver_name ="田旺";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_driver_basic_info</t>
   </si>
 </sst>
 </file>
@@ -727,9 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,528 +757,708 @@
     <col min="2" max="2" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>121</v>
+      <c r="C64" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
